--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T15:41:03+00:00</t>
+    <t>2021-10-21T18:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>001</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T18:48:22+00:00</t>
+    <t>2021-10-27T18:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>001</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T18:21:42+00:00</t>
+    <t>2021-11-17T17:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T17:36:43+00:00</t>
+    <t>2021-12-17T22:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T22:04:03+00:00</t>
+    <t>2021-12-20T17:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T17:22:47+00:00</t>
+    <t>2021-12-20T17:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-obstructive-sleep-apnea-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T17:36:36+00:00</t>
+    <t>2022-01-20T17:52:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
